--- a/Report/2020年机构数据统计简报.xlsx
+++ b/Report/2020年机构数据统计简报.xlsx
@@ -7,19 +7,21 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="内部团队数据统计表" sheetId="1" r:id="rId1"/>
+    <sheet name="三级机构数据统计表" sheetId="1" r:id="rId1"/>
+    <sheet name="四级机构数据统计表" sheetId="2" r:id="rId2"/>
+    <sheet name="内部团队数据统计表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="29">
-  <si>
-    <t>2020年内部团队数据统计表</t>
-  </si>
-  <si>
-    <t>数据统计范围：2020-01-01 至 2020-01-22</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="72">
+  <si>
+    <t>2020年三级机构数据统计表</t>
+  </si>
+  <si>
+    <t>数据统计范围：2020-01-01 至 2020-01-31</t>
   </si>
   <si>
     <t>序号</t>
@@ -45,22 +47,151 @@
 增长率</t>
   </si>
   <si>
+    <t>分公司整体</t>
+  </si>
+  <si>
+    <t>车险</t>
+  </si>
+  <si>
+    <t>财产险</t>
+  </si>
+  <si>
+    <t>人身险</t>
+  </si>
+  <si>
+    <t>驾意险</t>
+  </si>
+  <si>
+    <t>——</t>
+  </si>
+  <si>
+    <t>整体</t>
+  </si>
+  <si>
+    <t>昆明</t>
+  </si>
+  <si>
+    <t>曲靖</t>
+  </si>
+  <si>
+    <t>文山</t>
+  </si>
+  <si>
+    <t>大理</t>
+  </si>
+  <si>
+    <t>版纳</t>
+  </si>
+  <si>
+    <t>保山</t>
+  </si>
+  <si>
+    <t>怒江</t>
+  </si>
+  <si>
+    <t>昭通</t>
+  </si>
+  <si>
+    <t>2020年四级机构数据统计表</t>
+  </si>
+  <si>
+    <t>非车险</t>
+  </si>
+  <si>
+    <t>百大国际</t>
+  </si>
+  <si>
+    <t>丘北</t>
+  </si>
+  <si>
+    <t>宜良</t>
+  </si>
+  <si>
+    <t>宣威</t>
+  </si>
+  <si>
+    <t>富宁</t>
+  </si>
+  <si>
+    <t>师宗</t>
+  </si>
+  <si>
+    <t>砚山</t>
+  </si>
+  <si>
+    <t>春怡雅苑</t>
+  </si>
+  <si>
+    <t>陆良</t>
+  </si>
+  <si>
+    <t>沾益</t>
+  </si>
+  <si>
+    <t>祥云</t>
+  </si>
+  <si>
+    <t>春之城</t>
+  </si>
+  <si>
+    <t>勐海</t>
+  </si>
+  <si>
+    <t>勐腊</t>
+  </si>
+  <si>
+    <t>东川</t>
+  </si>
+  <si>
+    <t>云龙</t>
+  </si>
+  <si>
+    <t>马关</t>
+  </si>
+  <si>
+    <t>弥渡</t>
+  </si>
+  <si>
+    <t>罗平</t>
+  </si>
+  <si>
+    <t>香榭丽园</t>
+  </si>
+  <si>
+    <t>施甸</t>
+  </si>
+  <si>
+    <t>广南</t>
+  </si>
+  <si>
+    <t>腾冲</t>
+  </si>
+  <si>
+    <t>麻栗坡</t>
+  </si>
+  <si>
+    <t>会泽</t>
+  </si>
+  <si>
+    <t>安宁</t>
+  </si>
+  <si>
+    <t>漾濞</t>
+  </si>
+  <si>
+    <t>宾川</t>
+  </si>
+  <si>
+    <t>兰坪</t>
+  </si>
+  <si>
+    <t>洱源</t>
+  </si>
+  <si>
+    <t>2020年内部团队数据统计表</t>
+  </si>
+  <si>
     <t>曲靖中支本部</t>
-  </si>
-  <si>
-    <t>车险</t>
-  </si>
-  <si>
-    <t>非车险</t>
-  </si>
-  <si>
-    <t>驾意险</t>
-  </si>
-  <si>
-    <t>——</t>
-  </si>
-  <si>
-    <t>整体</t>
   </si>
   <si>
     <t>曲靖一部</t>
@@ -110,13 +241,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
-    <numFmt numFmtId="164" formatCode="0.00"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
-    <numFmt numFmtId="164" formatCode="0.00"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
-    <numFmt numFmtId="164" formatCode="0.00"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
   <fonts count="5">
@@ -163,7 +294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,16 +664,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
@@ -591,9 +722,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -601,16 +730,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="4">
-        <v>1000</v>
+        <v>21670</v>
       </c>
       <c r="E4" s="5">
-        <v>137.230017</v>
+        <v>2483.340378000008</v>
       </c>
       <c r="F4" s="6">
-        <v>2.283008464636364</v>
+        <v>1.35299667795228</v>
       </c>
       <c r="G4" s="6">
-        <v>-0.08122956655779878</v>
+        <v>0.480465106009885</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -620,16 +749,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="4">
-        <v>290</v>
+        <v>1900</v>
       </c>
       <c r="E5" s="5">
-        <v>12.60134699999999</v>
+        <v>86.366823</v>
       </c>
       <c r="F5" s="6">
-        <v>0.7228985896551721</v>
+        <v>0.5366766930050934</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.01434221258710067</v>
+        <v>-0.1706988632856146</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -638,42 +767,3627 @@
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="4">
+        <v>2800</v>
+      </c>
+      <c r="E6" s="5">
+        <v>184.5155530000011</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.7780264101152122</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-0.03917376012570017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
+        <v>33.94403700000014</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3.879345716446862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7">
+        <v>26370</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2754.222754000007</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1.233128467055675</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.395540841909866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10">
+        <v>4900</v>
+      </c>
+      <c r="E9" s="11">
+        <v>602.7642980000011</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1.45234847312706</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.9104499545694602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1060</v>
+      </c>
+      <c r="E10" s="11">
+        <v>41.90284499999999</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.4667206716372487</v>
+      </c>
+      <c r="G10" s="12">
+        <v>-0.4688663091133212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1510</v>
+      </c>
+      <c r="E11" s="11">
+        <v>88.19095899999998</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.6895511855159153</v>
+      </c>
+      <c r="G11" s="12">
+        <v>-0.1775813156116332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="11">
+        <v>4.569157999999995</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="12">
+        <v>4.618613950994684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7470</v>
+      </c>
+      <c r="E13" s="13">
+        <v>732.8581020000011</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1.158293670734553</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.4609361873417444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5800</v>
+      </c>
+      <c r="E14" s="5">
+        <v>583.3337500000001</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1.18743132647386</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.3731702399959809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
+        <v>200</v>
+      </c>
+      <c r="E15" s="5">
+        <v>5.882801</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.3472750267741936</v>
+      </c>
+      <c r="G15" s="6">
+        <v>-0.2934757975148193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4">
+        <v>300</v>
+      </c>
+      <c r="E16" s="5">
+        <v>20.15457399999998</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.7931800090322574</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1.516047428777373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5">
+        <v>9.938784999999978</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="6">
+        <v>10.62803635317046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6300</v>
+      </c>
+      <c r="E18" s="8">
+        <v>609.3711249999994</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1.141985825652841</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.3813402469749396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>3</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="10">
+        <v>3460</v>
+      </c>
+      <c r="E19" s="11">
+        <v>514.6859110000006</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1.756246908689169</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.5985644684471143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="10">
+        <v>70</v>
+      </c>
+      <c r="E20" s="11">
+        <v>3.903361</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.6583548967741936</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.5823401550493186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="10">
+        <v>170</v>
+      </c>
+      <c r="E21" s="11">
+        <v>10.679416</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0.7416824015180263</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.4141967962453406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="11">
+        <v>4.648585999999994</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="12">
+        <v>11.01824743920535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E23" s="13">
+        <v>529.268688</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1.688860852728858</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.5942501618539795</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3220</v>
+      </c>
+      <c r="E24" s="5">
+        <v>333.6652679999999</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1.223417031536766</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.2712686505322583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4">
+        <v>50</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2.516024</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.5941063122580644</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.5952695256971625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="4">
+        <v>130</v>
+      </c>
+      <c r="E26" s="5">
+        <v>17.44833999999998</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1.584638322580644</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.3199956454912412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="5">
+        <v>6.285626999999993</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="6">
+        <v>3.033095029104678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3400</v>
+      </c>
+      <c r="E28" s="8">
+        <v>353.6296319999997</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1.227973864440227</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.2754347601240785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>5</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1800</v>
+      </c>
+      <c r="E29" s="11">
+        <v>222.5964589999999</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1.460041290215053</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.7038393453870626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="10">
+        <v>50</v>
+      </c>
+      <c r="E30" s="11">
+        <v>2.061255</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0.4867221483870968</v>
+      </c>
+      <c r="G30" s="12">
+        <v>-0.08196205110892485</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="10">
+        <v>150</v>
+      </c>
+      <c r="E31" s="11">
+        <v>5.794186999999988</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0.4560585896774184</v>
+      </c>
+      <c r="G31" s="12">
+        <v>1.378455761288572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="11">
+        <v>5.45305399999999</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="12">
+        <v>1.403402722654122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="13">
+        <v>230.4519010000002</v>
+      </c>
+      <c r="F33" s="14">
+        <v>1.360409609129033</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0.7029459088098446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1450</v>
+      </c>
+      <c r="E34" s="5">
+        <v>111.212782</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.9055367789099003</v>
+      </c>
+      <c r="G34" s="6">
+        <v>-0.1055284071554055</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="4">
+        <v>120</v>
+      </c>
+      <c r="E35" s="5">
+        <v>7.418304999999999</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.7298654919354838</v>
+      </c>
+      <c r="G35" s="6">
+        <v>-0.04428989265387007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="4">
+        <v>280</v>
+      </c>
+      <c r="E36" s="5">
+        <v>39.12175900000002</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1.64960412373272</v>
+      </c>
+      <c r="G36" s="6">
+        <v>-0.1080438018352121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1.253286</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.8074424252563086</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1850</v>
+      </c>
+      <c r="E38" s="8">
+        <v>157.7528460000003</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1.006757482755015</v>
+      </c>
+      <c r="G38" s="9">
+        <v>-0.1034539598780719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="10">
+        <v>7</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="10">
+        <v>590</v>
+      </c>
+      <c r="E39" s="11">
+        <v>66.16394299999997</v>
+      </c>
+      <c r="F39" s="12">
+        <v>1.324002358556588</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0.1304193294832798</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="10">
+        <v>50</v>
+      </c>
+      <c r="E40" s="11">
+        <v>20.141287</v>
+      </c>
+      <c r="F40" s="12">
+        <v>4.755942607741935</v>
+      </c>
+      <c r="G40" s="12">
+        <v>6.502989269622844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="10">
+        <v>110</v>
+      </c>
+      <c r="E41" s="11">
+        <v>2.114977000000001</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0.2270033964809385</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0.2451001978053038</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="11">
+        <v>1.635738</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="12">
+        <v>7.669376722493112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="3">
+        <v>750</v>
+      </c>
+      <c r="E43" s="13">
+        <v>88.42020699999992</v>
+      </c>
+      <c r="F43" s="14">
+        <v>1.391905194064515</v>
+      </c>
+      <c r="G43" s="14">
+        <v>0.4054246403042439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4">
+        <v>8</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="4">
+        <v>450</v>
+      </c>
+      <c r="E44" s="5">
+        <v>48.917967</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1.283439134193548</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.2496122132752652</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="4">
+        <v>300</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2.540945</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0.09999848064516131</v>
+      </c>
+      <c r="G45" s="6">
+        <v>12.46702600713381</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="4">
+        <v>150</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1.011341</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0.07960232387096776</v>
+      </c>
+      <c r="G46" s="6">
+        <v>-0.8740376658567608</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.159803</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="6">
+        <v>-0.1696647545412978</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="7">
+        <v>900</v>
+      </c>
+      <c r="E48" s="8">
+        <v>52.47025299999999</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0.6883194479569892</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0.1078060936135339</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>21670</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2483.340378000008</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.35299667795228</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.480465106009885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4700</v>
+      </c>
+      <c r="E5" s="5">
+        <v>270.8823759999994</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.6804595031983514</v>
+      </c>
+      <c r="G5" s="6">
+        <v>-0.08542079641883837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="5">
-        <v>1.238232</v>
+        <v>33.94403700000014</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="6">
-        <v>4.167460281027124</v>
+        <v>3.879345716446862</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>26370</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2754.222754000007</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1.233128467055675</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.395540841909866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="11">
+        <v>135.5705020000001</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1.333838810000001</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.7141802147136493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="10">
+        <v>30</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1.326162</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.5219089161290322</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.243151</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1230</v>
+      </c>
+      <c r="E11" s="13">
+        <v>136.8966640000001</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1.314035641856807</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.7309484690784895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4">
+        <v>800</v>
+      </c>
+      <c r="E12" s="5">
+        <v>123.918168</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1.828792318064516</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.3862375429887368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3.025271999999999</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.7937272774193547</v>
+      </c>
+      <c r="G13" s="6">
+        <v>-0.1132286187132099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.586418</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="6">
+        <v>30.08002967988128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7">
+        <v>845</v>
+      </c>
+      <c r="E15" s="8">
+        <v>126.9434399999999</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1.773670511166252</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.3678765789379106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>3</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="10">
+        <v>850</v>
+      </c>
+      <c r="E16" s="11">
+        <v>103.53375</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1.43807789373814</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.5932388365945986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="10">
+        <v>70</v>
+      </c>
+      <c r="E17" s="11">
+        <v>18.151437</v>
+      </c>
+      <c r="F17" s="12">
+        <v>3.06148660921659</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.2440220221755587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="11">
+        <v>2.269333</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="12">
+        <v>10.79143804298125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>920</v>
+      </c>
+      <c r="E19" s="13">
+        <v>121.6851870000001</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1.561598122089763</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0.5292054864468267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4">
+        <v>980</v>
+      </c>
+      <c r="E20" s="5">
+        <v>98.58901000000004</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1.187741200131666</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1.386908338458336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="4">
+        <v>30</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5.285601</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2.080139748387097</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1.721069</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1010</v>
+      </c>
+      <c r="E23" s="8">
+        <v>103.8746110000001</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1.21424808770361</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1.514876406102627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="10">
+        <v>5</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="10">
+        <v>400</v>
+      </c>
+      <c r="E24" s="11">
+        <v>101.606089</v>
+      </c>
+      <c r="F24" s="12">
+        <v>2.999018433387098</v>
+      </c>
+      <c r="G24" s="12">
+        <v>1.417483491968405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="10">
+        <v>35</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1.789002</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0.6034790156682028</v>
+      </c>
+      <c r="G25" s="12">
+        <v>-0.5552869216468137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.244805</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3">
+        <v>435</v>
+      </c>
+      <c r="E27" s="13">
+        <v>103.395091</v>
+      </c>
+      <c r="F27" s="14">
+        <v>2.806273882536151</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1.245156182129116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4">
+        <v>980</v>
+      </c>
+      <c r="E28" s="5">
+        <v>93.31490800000002</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1.124201985780119</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.1956967381030241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4">
+        <v>30</v>
+      </c>
+      <c r="E29" s="5">
+        <v>3.975833999999999</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1.564683058064516</v>
+      </c>
+      <c r="G29" s="6">
+        <v>2.190458077748996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="5">
+        <v>3.825883</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="6">
+        <v>11.51646557703129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1010</v>
+      </c>
+      <c r="E31" s="8">
+        <v>97.29074200000002</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1.137285581986586</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.2270480854771659</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10">
+        <v>7</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="10">
+        <v>600</v>
+      </c>
+      <c r="E32" s="11">
+        <v>92.75439199999994</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1.825167068387096</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0.5503781339472629</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="10">
+        <v>35</v>
+      </c>
+      <c r="E33" s="11">
+        <v>4.291408000000001</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1.447608597235023</v>
+      </c>
+      <c r="G33" s="12">
+        <v>5.994766241196253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.6352880000000001</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="12">
+        <v>3.644155768204514</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="3">
+        <v>635</v>
+      </c>
+      <c r="E35" s="13">
+        <v>97.04579999999993</v>
+      </c>
+      <c r="F35" s="14">
+        <v>1.804356758953517</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0.6056428420926265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4">
+        <v>8</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4">
+        <v>950</v>
+      </c>
+      <c r="E36" s="5">
+        <v>84.52097299999998</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1.050413450526316</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.5486958269614368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="4">
+        <v>150</v>
+      </c>
+      <c r="E37" s="5">
+        <v>9.173519999999996</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0.7220447999999997</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.2142295453363214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.6169340000000001</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="6">
+        <v>3.388833953432123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1100</v>
+      </c>
+      <c r="E39" s="8">
+        <v>93.69449300000001</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1.005635907272727</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0.5080250883811794</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="10">
+        <v>9</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="10">
+        <v>780</v>
+      </c>
+      <c r="E40" s="11">
+        <v>86.52004999999997</v>
+      </c>
+      <c r="F40" s="12">
+        <v>1.309608697270471</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0.3318438508503228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="10">
+        <v>30</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0.8097960000000001</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0.3186939096774194</v>
+      </c>
+      <c r="G41" s="12">
+        <v>1.1448708780294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0.520836</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="12">
+        <v>1.816700016224109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="3">
+        <v>810</v>
+      </c>
+      <c r="E43" s="13">
+        <v>87.32984599999995</v>
+      </c>
+      <c r="F43" s="14">
+        <v>1.272908149581839</v>
+      </c>
+      <c r="G43" s="14">
+        <v>0.3365417022713653</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4">
+        <v>10</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="4">
+        <v>780</v>
+      </c>
+      <c r="E44" s="5">
+        <v>80.53243699999999</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1.218977334243176</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="4">
+        <v>30</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1.377582</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0.5421451741935484</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.64555</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="7">
+        <v>810</v>
+      </c>
+      <c r="E47" s="8">
+        <v>81.91001900000002</v>
+      </c>
+      <c r="F47" s="9">
+        <v>1.193909476463561</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="10">
+        <v>11</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="10">
+        <v>600</v>
+      </c>
+      <c r="E48" s="11">
+        <v>74.19611600000003</v>
+      </c>
+      <c r="F48" s="12">
+        <v>1.459988089032259</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="10">
+        <v>15</v>
+      </c>
+      <c r="E49" s="11">
+        <v>2.328866000000001</v>
+      </c>
+      <c r="F49" s="12">
+        <v>1.833042916129033</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0.384542</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="3">
+        <v>615</v>
+      </c>
+      <c r="E51" s="13">
+        <v>76.52498200000002</v>
+      </c>
+      <c r="F51" s="14">
+        <v>1.469086987254131</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="4">
+        <v>12</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="4">
+        <v>100</v>
+      </c>
+      <c r="E52" s="5">
+        <v>57.884472</v>
+      </c>
+      <c r="F52" s="6">
+        <v>6.834102178064516</v>
+      </c>
+      <c r="G52" s="6">
+        <v>15.71458754859431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="4">
+        <v>940</v>
+      </c>
+      <c r="E53" s="5">
+        <v>15.882085</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0.1994798596431023</v>
+      </c>
+      <c r="G53" s="6">
+        <v>-0.7081465255371617</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.136038</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1040</v>
+      </c>
+      <c r="E55" s="8">
+        <v>73.76655699999999</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0.8374243133374689</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0.2744493714012444</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="10">
+        <v>13</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="10">
+        <v>600</v>
+      </c>
+      <c r="E56" s="11">
+        <v>71.50969700000003</v>
+      </c>
+      <c r="F56" s="12">
+        <v>1.407126295806452</v>
+      </c>
+      <c r="G56" s="12">
+        <v>1.086701242848731</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="10">
+        <v>35</v>
+      </c>
+      <c r="E57" s="11">
+        <v>1.381998</v>
+      </c>
+      <c r="F57" s="12">
+        <v>0.4661855004608296</v>
+      </c>
+      <c r="G57" s="12">
+        <v>3.680217417071644</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="11">
+        <v>1.196572</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="12">
+        <v>3.052261374604197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="3">
+        <v>635</v>
+      </c>
+      <c r="E59" s="13">
+        <v>72.89169500000001</v>
+      </c>
+      <c r="F59" s="14">
+        <v>1.355263417322835</v>
+      </c>
+      <c r="G59" s="14">
+        <v>1.108857661638201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="4">
+        <v>14</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="4">
+        <v>650</v>
+      </c>
+      <c r="E60" s="5">
+        <v>69.45206099999996</v>
+      </c>
+      <c r="F60" s="6">
+        <v>1.261511380942927</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.3380251831407346</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="4">
+        <v>45</v>
+      </c>
+      <c r="E61" s="5">
+        <v>3.243567000000001</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0.8510003741935486</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1.142928778407177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="5">
+        <v>2.352058000000001</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1.141887437120034</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="7">
+        <v>695</v>
+      </c>
+      <c r="E63" s="8">
+        <v>72.69562799999999</v>
+      </c>
+      <c r="F63" s="9">
+        <v>1.234931531585054</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0.3608314952111478</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="10">
+        <v>15</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="10">
+        <v>800</v>
+      </c>
+      <c r="E64" s="11">
+        <v>67.94120999999998</v>
+      </c>
+      <c r="F64" s="12">
+        <v>1.002680760483871</v>
+      </c>
+      <c r="G64" s="12">
+        <v>1.15303216412417</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="10">
+        <v>60</v>
+      </c>
+      <c r="E65" s="11">
+        <v>2.458711</v>
+      </c>
+      <c r="F65" s="12">
+        <v>0.4838108741935484</v>
+      </c>
+      <c r="G65" s="12">
+        <v>-0.7842790330809566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="11">
+        <v>0.290132</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="12">
+        <v>0.922116811532754</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="3">
+        <v>860</v>
+      </c>
+      <c r="E67" s="13">
+        <v>70.39992099999998</v>
+      </c>
+      <c r="F67" s="14">
+        <v>0.9664805358589644</v>
+      </c>
+      <c r="G67" s="14">
+        <v>0.6389720662972391</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="4">
+        <v>16</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="4">
+        <v>550</v>
+      </c>
+      <c r="E68" s="5">
+        <v>60.52153899999998</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1.299172039530791</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.4213837090975938</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="4">
+        <v>15</v>
+      </c>
+      <c r="E69" s="5">
+        <v>2.669981</v>
+      </c>
+      <c r="F69" s="6">
+        <v>2.101533432258064</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1.12916805555334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1.05043</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1.825969987032764</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="7">
+        <v>565</v>
+      </c>
+      <c r="E71" s="8">
+        <v>63.19151999999998</v>
+      </c>
+      <c r="F71" s="9">
+        <v>1.320473669426206</v>
+      </c>
+      <c r="G71" s="9">
+        <v>0.4416323037229692</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="10">
+        <v>17</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="10">
+        <v>450</v>
+      </c>
+      <c r="E72" s="11">
+        <v>55.18725400000002</v>
+      </c>
+      <c r="F72" s="12">
+        <v>1.447923653333334</v>
+      </c>
+      <c r="G72" s="12">
+        <v>0.7851162353192038</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="10">
+        <v>15</v>
+      </c>
+      <c r="E73" s="11">
+        <v>2.684547000000001</v>
+      </c>
+      <c r="F73" s="12">
+        <v>2.112998283870969</v>
+      </c>
+      <c r="G73" s="12">
+        <v>1.261897820797133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="11">
+        <v>1.759268</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="12">
+        <v>36.29633241467035</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="3">
+        <v>465</v>
+      </c>
+      <c r="E75" s="13">
+        <v>57.87180100000001</v>
+      </c>
+      <c r="F75" s="14">
+        <v>1.469377673673257</v>
+      </c>
+      <c r="G75" s="14">
+        <v>0.8027434802339242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="4">
+        <v>18</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="4">
+        <v>450</v>
+      </c>
+      <c r="E76" s="5">
+        <v>54.12116500000001</v>
+      </c>
+      <c r="F76" s="6">
+        <v>1.41995314623656</v>
+      </c>
+      <c r="G76" s="6">
+        <v>0.3385717469894653</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="4">
+        <v>12</v>
+      </c>
+      <c r="E77" s="5">
+        <v>2.168603</v>
+      </c>
+      <c r="F77" s="6">
+        <v>2.133625532258065</v>
+      </c>
+      <c r="G77" s="6">
+        <v>5.352237310774712</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="5">
+        <v>1.528293</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="6">
+        <v>5.952696155368428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="7">
+        <v>462</v>
+      </c>
+      <c r="E79" s="8">
+        <v>56.289768</v>
+      </c>
+      <c r="F79" s="9">
+        <v>1.438490091328027</v>
+      </c>
+      <c r="G79" s="9">
+        <v>0.3805506999953108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="10">
+        <v>19</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="10">
+        <v>440</v>
+      </c>
+      <c r="E80" s="11">
+        <v>52.76498199999998</v>
+      </c>
+      <c r="F80" s="12">
+        <v>1.415834560997067</v>
+      </c>
+      <c r="G80" s="12">
+        <v>0.8822108381493245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="10">
+        <v>20</v>
+      </c>
+      <c r="E81" s="11">
+        <v>1.293103</v>
+      </c>
+      <c r="F81" s="12">
+        <v>0.7633479000000001</v>
+      </c>
+      <c r="G81" s="12">
+        <v>17.52291186202748</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="11">
+        <v>1.293103</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="12">
+        <v>17.52291186202748</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="3">
+        <v>460</v>
+      </c>
+      <c r="E83" s="13">
+        <v>54.058085</v>
+      </c>
+      <c r="F83" s="14">
+        <v>1.387465575736325</v>
+      </c>
+      <c r="G83" s="14">
+        <v>0.9235477269521568</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="4">
+        <v>20</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="4">
+        <v>650</v>
+      </c>
+      <c r="E84" s="5">
+        <v>50.49735700000002</v>
+      </c>
+      <c r="F84" s="6">
+        <v>0.9172224646153849</v>
+      </c>
+      <c r="G84" s="6">
+        <v>0.3436906973978695</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="4">
+        <v>30</v>
+      </c>
+      <c r="E85" s="5">
+        <v>2.432723</v>
+      </c>
+      <c r="F85" s="6">
+        <v>0.9573942129032259</v>
+      </c>
+      <c r="G85" s="6">
+        <v>-0.3998744353909648</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0.323718</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="7">
+        <v>680</v>
+      </c>
+      <c r="E87" s="8">
+        <v>52.93008000000003</v>
+      </c>
+      <c r="F87" s="9">
+        <v>0.918994747628084</v>
+      </c>
+      <c r="G87" s="9">
+        <v>0.2712949081005049</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="10">
+        <v>21</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="10">
+        <v>370</v>
+      </c>
+      <c r="E88" s="11">
+        <v>33.734949</v>
+      </c>
+      <c r="F88" s="12">
+        <v>1.07645957576286</v>
+      </c>
+      <c r="G88" s="12">
+        <v>-0.0535054049173691</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="10">
+        <v>40</v>
+      </c>
+      <c r="E89" s="11">
+        <v>17.810982</v>
+      </c>
+      <c r="F89" s="12">
+        <v>5.257112429032257</v>
+      </c>
+      <c r="G89" s="12">
+        <v>-0.4086799143393421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="11">
+        <v>0.5247200000000001</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="12">
+        <v>0.5492953587868308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="3">
+        <v>370</v>
+      </c>
+      <c r="E91" s="13">
+        <v>51.54593100000001</v>
+      </c>
+      <c r="F91" s="14">
+        <v>1.644796054577158</v>
+      </c>
+      <c r="G91" s="14">
+        <v>-0.2161828665793828</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="4">
+        <v>22</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="4">
+        <v>300</v>
+      </c>
+      <c r="E92" s="5">
+        <v>46.374369</v>
+      </c>
+      <c r="F92" s="6">
+        <v>1.825055812258065</v>
+      </c>
+      <c r="G92" s="6">
+        <v>0.04160525604195997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="4">
+        <v>5</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0.723593</v>
+      </c>
+      <c r="F93" s="6">
+        <v>1.708613148387097</v>
+      </c>
+      <c r="G93" s="6">
+        <v>24.56685039926507</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0.06793400000000001</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="6">
+        <v>1.400325065366406</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="7">
+        <v>305</v>
+      </c>
+      <c r="E95" s="8">
+        <v>47.097962</v>
+      </c>
+      <c r="F95" s="9">
+        <v>1.823146916129032</v>
+      </c>
+      <c r="G95" s="9">
+        <v>0.05718569345437508</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="10">
+        <v>23</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="10">
+        <v>380</v>
+      </c>
+      <c r="E96" s="11">
+        <v>21.83989299999999</v>
+      </c>
+      <c r="F96" s="12">
+        <v>0.6785569471986416</v>
+      </c>
+      <c r="G96" s="12">
+        <v>-0.2090602949256229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="10">
+        <v>50</v>
+      </c>
+      <c r="E97" s="11">
+        <v>19.425327</v>
+      </c>
+      <c r="F97" s="12">
+        <v>4.58688366580645</v>
+      </c>
+      <c r="G97" s="12">
+        <v>2.969609345927698</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="11">
+        <v>0.514792</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="3">
+        <v>380</v>
+      </c>
+      <c r="E99" s="13">
+        <v>41.26522000000001</v>
+      </c>
+      <c r="F99" s="14">
+        <v>1.282094271646859</v>
+      </c>
+      <c r="G99" s="14">
+        <v>0.2694608088943307</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="4">
+        <v>24</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="4">
+        <v>300</v>
+      </c>
+      <c r="E100" s="5">
+        <v>31.74624400000001</v>
+      </c>
+      <c r="F100" s="6">
+        <v>1.249368312258065</v>
+      </c>
+      <c r="G100" s="6">
+        <v>0.2425014093785636</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="4">
+        <v>25</v>
+      </c>
+      <c r="E101" s="5">
+        <v>1.124916</v>
+      </c>
+      <c r="F101" s="6">
+        <v>0.5312506529032259</v>
+      </c>
+      <c r="G101" s="6">
+        <v>0.6108220961152668</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="5">
+        <v>0.8166920000000003</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="6">
+        <v>5.925520457918171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="7">
+        <v>325</v>
+      </c>
+      <c r="E103" s="8">
+        <v>32.87116000000002</v>
+      </c>
+      <c r="F103" s="9">
+        <v>1.194128492307693</v>
+      </c>
+      <c r="G103" s="9">
+        <v>0.2523006450206509</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="10">
+        <v>25</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="10">
+        <v>370</v>
+      </c>
+      <c r="E104" s="11">
+        <v>31.86338499999999</v>
+      </c>
+      <c r="F104" s="12">
+        <v>1.016739224934612</v>
+      </c>
+      <c r="G104" s="12">
+        <v>0.8010184904139579</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="10">
+        <v>20</v>
+      </c>
+      <c r="E105" s="11">
+        <v>0.694112</v>
+      </c>
+      <c r="F105" s="12">
+        <v>0.4097499870967742</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="11">
+        <v>0.694112</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="3">
+        <v>390</v>
+      </c>
+      <c r="E107" s="13">
+        <v>32.55749700000001</v>
+      </c>
+      <c r="F107" s="14">
+        <v>0.9856115717121591</v>
+      </c>
+      <c r="G107" s="14">
+        <v>0.8402518784051658</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="4">
+        <v>26</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="4">
+        <v>350</v>
+      </c>
+      <c r="E108" s="5">
+        <v>31.57074299999999</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1.064966998894009</v>
+      </c>
+      <c r="G108" s="6">
+        <v>0.158767911847328</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="4">
+        <v>30</v>
+      </c>
+      <c r="E109" s="5">
+        <v>0.488774</v>
+      </c>
+      <c r="F109" s="6">
+        <v>0.1923562193548387</v>
+      </c>
+      <c r="G109" s="6">
+        <v>-0.4256123758443523</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0.417434</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="6">
+        <v>0.3656629501675046</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="7">
+        <v>380</v>
+      </c>
+      <c r="E111" s="8">
+        <v>32.05951699999999</v>
+      </c>
+      <c r="F111" s="9">
+        <v>0.9960766741935482</v>
+      </c>
+      <c r="G111" s="9">
+        <v>0.141068721276205</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="10">
+        <v>27</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="10">
+        <v>350</v>
+      </c>
+      <c r="E112" s="11">
+        <v>27.64121799999999</v>
+      </c>
+      <c r="F112" s="12">
+        <v>0.9324134366820274</v>
+      </c>
+      <c r="G112" s="12">
+        <v>-0.3092515653171702</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="10">
+        <v>5</v>
+      </c>
+      <c r="E113" s="11">
+        <v>4.271923999999997</v>
+      </c>
+      <c r="F113" s="12">
+        <v>10.08725279999999</v>
+      </c>
+      <c r="G113" s="12">
+        <v>23.71706213512465</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="11">
+        <v>0.8111480000000001</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="12">
+        <v>4.441828013256585</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="3">
+        <v>355</v>
+      </c>
+      <c r="E115" s="13">
+        <v>31.913142</v>
+      </c>
+      <c r="F115" s="14">
+        <v>1.06135483616538</v>
+      </c>
+      <c r="G115" s="14">
+        <v>-0.2059267020334133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="4">
+        <v>28</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="4">
+        <v>500</v>
+      </c>
+      <c r="E116" s="5">
+        <v>30.197499</v>
+      </c>
+      <c r="F116" s="6">
+        <v>0.7130506215483872</v>
+      </c>
+      <c r="G116" s="6">
+        <v>-0.2690793708546771</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="4">
+        <v>8</v>
+      </c>
+      <c r="E117" s="5">
+        <v>1.001427</v>
+      </c>
+      <c r="F117" s="6">
+        <v>1.477912427419355</v>
+      </c>
+      <c r="G117" s="6">
+        <v>-0.7766983645056748</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="5">
+        <v>0.695196</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="6">
+        <v>1.585592454430159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="7">
+        <v>508</v>
+      </c>
+      <c r="E119" s="8">
+        <v>31.19892600000001</v>
+      </c>
+      <c r="F119" s="9">
+        <v>0.725095689357379</v>
+      </c>
+      <c r="G119" s="9">
+        <v>-0.3187854522149531</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="10">
+        <v>29</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="10">
+        <v>228</v>
+      </c>
+      <c r="E120" s="11">
+        <v>23.775371</v>
+      </c>
+      <c r="F120" s="12">
+        <v>1.23115248811545</v>
+      </c>
+      <c r="G120" s="12">
+        <v>0.3753868884143323</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="10">
+        <v>72</v>
+      </c>
+      <c r="E121" s="11">
+        <v>3.660775</v>
+      </c>
+      <c r="F121" s="12">
+        <v>0.600288373655914</v>
+      </c>
+      <c r="G121" s="12">
+        <v>1.018133445354617</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="11">
+        <v>1.19285</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" s="12">
+        <v>6.02453301297906</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="3">
+        <v>300</v>
+      </c>
+      <c r="E123" s="13">
+        <v>27.436146</v>
+      </c>
+      <c r="F123" s="14">
+        <v>1.079745100645161</v>
+      </c>
+      <c r="G123" s="14">
+        <v>0.4364281819049962</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="4">
+        <v>30</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="4">
+        <v>300</v>
+      </c>
+      <c r="E124" s="5">
+        <v>16.789306</v>
+      </c>
+      <c r="F124" s="6">
+        <v>0.6607404296774194</v>
+      </c>
+      <c r="G124" s="6">
+        <v>-0.3547175479267896</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="4">
+        <v>35</v>
+      </c>
+      <c r="E125" s="5">
+        <v>4.726241</v>
+      </c>
+      <c r="F125" s="6">
+        <v>1.59428959078341</v>
+      </c>
+      <c r="G125" s="6">
+        <v>0.11198737019927</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="5">
+        <v>0.160472</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" s="6">
+        <v>-0.2268198199934476</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="7">
+        <v>335</v>
+      </c>
+      <c r="E127" s="8">
+        <v>21.515547</v>
+      </c>
+      <c r="F127" s="9">
+        <v>0.7582754166586423</v>
+      </c>
+      <c r="G127" s="9">
+        <v>-0.2891840817094746</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="B124:B127"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>139.748978</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.649939546709677</v>
+      </c>
+      <c r="G4" s="6">
+        <v>-0.2825058911702933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4">
+        <v>290</v>
+      </c>
+      <c r="E5" s="5">
+        <v>12.60134699999999</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.513024805561735</v>
+      </c>
+      <c r="G5" s="6">
+        <v>-0.1394452323293902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.238232</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3.20685133027788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="7">
         <v>1290</v>
       </c>
       <c r="E7" s="8">
-        <v>149.831364</v>
+        <v>152.350325</v>
       </c>
       <c r="F7" s="9">
-        <v>1.932286089640592</v>
+        <v>1.394354062265566</v>
       </c>
       <c r="G7" s="9">
-        <v>-0.07595575188749137</v>
+        <v>-0.2725025106250106</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
@@ -682,20 +4396,20 @@
         <v>470</v>
       </c>
       <c r="E8" s="5">
-        <v>29.80491</v>
+        <v>30.751944</v>
       </c>
       <c r="F8" s="6">
-        <v>1.054990044487427</v>
+        <v>0.772492210295127</v>
       </c>
       <c r="G8" s="6">
-        <v>0.854796241880847</v>
+        <v>0.3562926146662992</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4">
         <v>50</v>
@@ -704,204 +4418,204 @@
         <v>3.064723</v>
       </c>
       <c r="F9" s="6">
-        <v>1.019716925454546</v>
+        <v>0.7236700761290323</v>
       </c>
       <c r="G9" s="6">
-        <v>0.2718012241933814</v>
+        <v>0.03382202283789382</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="5">
         <v>0.237096</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G10" s="6">
+        <v>11.56603773584906</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
         <v>520</v>
       </c>
       <c r="E11" s="8">
-        <v>32.869633</v>
+        <v>33.816667</v>
       </c>
       <c r="F11" s="9">
-        <v>1.051598398426574</v>
+        <v>0.7677977743176178</v>
       </c>
       <c r="G11" s="9">
-        <v>0.7787702937390266</v>
+        <v>0.3190061186931534</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="5">
-        <v>58.03149399999996</v>
+        <v>59.35681699999997</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="5">
         <v>9.342282999999993</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="5">
         <v>0.8067950000000003</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="8">
-        <v>67.37377699999996</v>
+        <v>68.69909999999997</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" s="5">
-        <v>44.76528699999999</v>
+        <v>45.01292799999999</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" s="6">
-        <v>-0.4943175849110619</v>
+        <v>-0.5993627745839744</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="5">
         <v>0.194341</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" s="6">
-        <v>-0.9800759578412964</v>
+        <v>-0.9822341164640278</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="5">
         <v>0.194341</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" s="6">
-        <v>2.614032803957302</v>
+        <v>1.901434735223421</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="8">
-        <v>44.959628</v>
+        <v>45.207269</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" s="9">
-        <v>-0.5425288249162433</v>
+        <v>-0.6333326855504248</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -909,7 +4623,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>10</v>
@@ -918,76 +4632,76 @@
         <v>610</v>
       </c>
       <c r="E20" s="11">
-        <v>59.132276</v>
+        <v>63.09939499999999</v>
       </c>
       <c r="F20" s="12">
-        <v>1.612698436363637</v>
+        <v>1.221278612903226</v>
       </c>
       <c r="G20" s="12">
-        <v>1.809972838449935</v>
+        <v>1.12229390218082</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D21" s="10">
         <v>80</v>
       </c>
       <c r="E21" s="11">
-        <v>0.9246050000000001</v>
+        <v>0.9440390000000001</v>
       </c>
       <c r="F21" s="12">
-        <v>0.1922758125</v>
+        <v>0.1393218846774194</v>
       </c>
       <c r="G21" s="12">
-        <v>15.2211403508772</v>
+        <v>15.56208771929825</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" s="11">
-        <v>0.5187470000000001</v>
+        <v>0.5381810000000001</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" s="12">
-        <v>12.74674051303795</v>
+        <v>13.26173945304219</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="3">
         <v>690</v>
       </c>
       <c r="E23" s="13">
-        <v>60.05688099999998</v>
+        <v>64.04343399999996</v>
       </c>
       <c r="F23" s="14">
-        <v>1.448011755335968</v>
+        <v>1.095834354558204</v>
       </c>
       <c r="G23" s="14">
-        <v>1.846200825962414</v>
+        <v>1.149924123900021</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>10</v>
@@ -996,76 +4710,76 @@
         <v>160</v>
       </c>
       <c r="E24" s="11">
-        <v>58.80269900000001</v>
+        <v>62.21734800000001</v>
       </c>
       <c r="F24" s="12">
-        <v>6.114144271022728</v>
+        <v>4.591038179032259</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D25" s="10">
         <v>65</v>
       </c>
       <c r="E25" s="11">
-        <v>0.9246050000000001</v>
+        <v>0.9440390000000001</v>
       </c>
       <c r="F25" s="12">
-        <v>0.2366471538461539</v>
+        <v>0.1714730888337469</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" s="11">
-        <v>0.518747</v>
+        <v>0.5381809999999999</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" s="3">
         <v>225</v>
       </c>
       <c r="E27" s="13">
-        <v>59.72730399999999</v>
+        <v>63.16138699999996</v>
       </c>
       <c r="F27" s="14">
-        <v>4.416200659393939</v>
+        <v>3.314274930752686</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>10</v>
@@ -1080,14 +4794,14 @@
         <v>0</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D29" s="10">
         <v>15</v>
@@ -1099,33 +4813,33 @@
         <v>0</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E30" s="11">
         <v>0</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="3">
         <v>465</v>
@@ -1137,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1145,7 +4859,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>10</v>
@@ -1154,20 +4868,20 @@
         <v>700</v>
       </c>
       <c r="E32" s="5">
-        <v>55.20037999999998</v>
+        <v>55.63793999999999</v>
       </c>
       <c r="F32" s="6">
-        <v>1.311905135064935</v>
+        <v>0.9384094949308756</v>
       </c>
       <c r="G32" s="6">
-        <v>0.1026355905346976</v>
+        <v>-0.08908115780237802</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D33" s="4">
         <v>310</v>
@@ -1176,54 +4890,54 @@
         <v>9.303754999999997</v>
       </c>
       <c r="F33" s="6">
-        <v>0.4992924237536656</v>
+        <v>0.3543365587929239</v>
       </c>
       <c r="G33" s="6">
-        <v>-0.2234899636940286</v>
+        <v>-0.4398194008221821</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34" s="5">
         <v>0.213774</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" s="6">
-        <v>-0.2829167169826511</v>
+        <v>-0.3973443843031123</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" s="7">
         <v>700</v>
       </c>
       <c r="E35" s="8">
-        <v>64.50413499999995</v>
+        <v>64.94169499999997</v>
       </c>
       <c r="F35" s="9">
-        <v>1.5330203512987</v>
+        <v>1.095329970967741</v>
       </c>
       <c r="G35" s="9">
-        <v>0.03965623270624552</v>
+        <v>-0.164064132242375</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>10</v>
@@ -1232,20 +4946,20 @@
         <v>550</v>
       </c>
       <c r="E36" s="5">
-        <v>28.733348</v>
+        <v>29.17090799999999</v>
       </c>
       <c r="F36" s="6">
-        <v>0.8691244105785124</v>
+        <v>0.6261907523753664</v>
       </c>
       <c r="G36" s="6">
-        <v>-0.2886949188978942</v>
+        <v>-0.432604609223403</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D37" s="4">
         <v>50</v>
@@ -1254,54 +4968,54 @@
         <v>0.259444</v>
       </c>
       <c r="F37" s="6">
-        <v>0.08632409454545455</v>
+        <v>0.06126226064516129</v>
       </c>
       <c r="G37" s="6">
-        <v>-0.9318315162970979</v>
+        <v>-0.9310558334438361</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E38" s="5">
         <v>0.155472</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G38" s="6">
-        <v>-0.4784848850782918</v>
+        <v>-0.5617050067659</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" s="7">
         <v>550</v>
       </c>
       <c r="E39" s="8">
-        <v>28.99279200000001</v>
+        <v>29.43035200000001</v>
       </c>
       <c r="F39" s="9">
-        <v>0.8769720555371905</v>
+        <v>0.6317600487976541</v>
       </c>
       <c r="G39" s="9">
-        <v>-0.3440719166402246</v>
+        <v>-0.4666004628431674</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>10</v>
@@ -1310,20 +5024,20 @@
         <v>150</v>
       </c>
       <c r="E40" s="5">
-        <v>26.438393</v>
+        <v>26.272848</v>
       </c>
       <c r="F40" s="6">
-        <v>2.932258132727273</v>
+        <v>2.067927390967742</v>
       </c>
       <c r="G40" s="6">
-        <v>1.7905876538967</v>
+        <v>1.773114283515818</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D41" s="4">
         <v>260</v>
@@ -1332,7 +5046,7 @@
         <v>7.176420999999999</v>
       </c>
       <c r="F41" s="6">
-        <v>0.4591905744755244</v>
+        <v>0.3258771818858561</v>
       </c>
       <c r="G41" s="6">
         <v>-0.08231025326418673</v>
@@ -1342,38 +5056,38 @@
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E42" s="5">
         <v>0.058302</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" s="7">
         <v>150</v>
       </c>
       <c r="E43" s="8">
-        <v>33.614814</v>
+        <v>33.44926899999999</v>
       </c>
       <c r="F43" s="9">
-        <v>3.728188461818182</v>
+        <v>2.632781172903226</v>
       </c>
       <c r="G43" s="9">
-        <v>0.9437015568086127</v>
+        <v>0.9341292868498412</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1381,7 +5095,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>10</v>
@@ -1390,70 +5104,70 @@
         <v>470</v>
       </c>
       <c r="E44" s="11">
-        <v>69.09020400000003</v>
+        <v>70.19842500000001</v>
       </c>
       <c r="F44" s="12">
-        <v>2.445552675435204</v>
+        <v>1.76339214481812</v>
       </c>
       <c r="G44" s="12">
-        <v>0.1231822838343004</v>
+        <v>-0.02645288109289123</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D45" s="10">
         <v>90</v>
       </c>
       <c r="E45" s="11">
-        <v>2.777775000000001</v>
+        <v>2.797322</v>
       </c>
       <c r="F45" s="12">
-        <v>0.5134675000000001</v>
+        <v>0.3669605204301076</v>
       </c>
       <c r="G45" s="12">
-        <v>-0.3356409204677676</v>
+        <v>-0.3483280609971134</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E46" s="11">
-        <v>1.635999</v>
+        <v>1.655546</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G46" s="12">
-        <v>5.827301711834275</v>
+        <v>3.847666567109989</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" s="3">
         <v>560</v>
       </c>
       <c r="E47" s="13">
-        <v>71.86797900000003</v>
+        <v>72.99574700000002</v>
       </c>
       <c r="F47" s="14">
-        <v>2.135038986525975</v>
+        <v>1.538965633755761</v>
       </c>
       <c r="G47" s="14">
-        <v>0.09398021637853771</v>
+        <v>-0.04453781293716974</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1461,7 +5175,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>10</v>
@@ -1470,70 +5184,70 @@
         <v>550</v>
       </c>
       <c r="E48" s="5">
-        <v>80.654957</v>
+        <v>81.63470099999996</v>
       </c>
       <c r="F48" s="6">
-        <v>2.43964580677686</v>
+        <v>1.752392995073313</v>
       </c>
       <c r="G48" s="6">
-        <v>1.459987686482446</v>
+        <v>0.8357915286978868</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D49" s="4">
         <v>120</v>
       </c>
       <c r="E49" s="5">
-        <v>3.191009</v>
+        <v>3.229877000000001</v>
       </c>
       <c r="F49" s="6">
-        <v>0.4423898840909091</v>
+        <v>0.317778220967742</v>
       </c>
       <c r="G49" s="6">
-        <v>0.2354723994076253</v>
+        <v>0.1244144032178276</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E50" s="5">
-        <v>1.865556000000001</v>
+        <v>1.904424000000001</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" s="6">
-        <v>1.942665875880172</v>
+        <v>1.175291268789694</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" s="7">
         <v>670</v>
       </c>
       <c r="E51" s="8">
-        <v>83.84596600000003</v>
+        <v>84.86457800000001</v>
       </c>
       <c r="F51" s="9">
-        <v>2.081928328086839</v>
+        <v>1.495447065382764</v>
       </c>
       <c r="G51" s="9">
-        <v>1.370568735141355</v>
+        <v>0.7926273926699012</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1541,7 +5255,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>10</v>
@@ -1550,20 +5264,20 @@
         <v>362</v>
       </c>
       <c r="E52" s="11">
-        <v>42.28479800000001</v>
+        <v>42.38857200000001</v>
       </c>
       <c r="F52" s="12">
-        <v>1.943274242591663</v>
+        <v>1.382482387453217</v>
       </c>
       <c r="G52" s="12">
-        <v>0.3791781943922223</v>
+        <v>0.02774807186487482</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D53" s="10">
         <v>88</v>
@@ -1572,26 +5286,26 @@
         <v>18.595489</v>
       </c>
       <c r="F53" s="12">
-        <v>3.515469511363636</v>
+        <v>2.494849330645161</v>
       </c>
       <c r="G53" s="12">
-        <v>8.160416121711364</v>
+        <v>6.238037797950594</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E54" s="11">
         <v>0.4428879999999999</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" s="12">
         <v>22.47297010811956</v>
@@ -1601,19 +5315,19 @@
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" s="3">
         <v>450</v>
       </c>
       <c r="E55" s="13">
-        <v>60.88028699999999</v>
+        <v>60.98406099999999</v>
       </c>
       <c r="F55" s="14">
-        <v>2.250725761818182</v>
+        <v>1.600011923010753</v>
       </c>
       <c r="G55" s="14">
-        <v>0.8623862433200435</v>
+        <v>0.391908741967415</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1621,57 +5335,57 @@
         <v>7</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E56" s="5">
-        <v>68.34176500000001</v>
+        <v>71.24529100000001</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G56" s="6">
-        <v>4.423780863325522</v>
+        <v>3.186642148069782</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D57" s="4">
         <v>1260</v>
       </c>
       <c r="E57" s="5">
-        <v>24.80356699999999</v>
+        <v>24.837611</v>
       </c>
       <c r="F57" s="6">
-        <v>0.3274929841991341</v>
+        <v>0.2327333749615975</v>
       </c>
       <c r="G57" s="6">
-        <v>0.007748102780724464</v>
+        <v>0.009131281918268064</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E58" s="5">
         <v>0.272418</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G58" s="6">
         <v>10.55047699809201</v>
@@ -1681,38 +5395,38 @@
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D59" s="4">
         <v>800</v>
       </c>
       <c r="E59" s="5">
-        <v>58.30291000000005</v>
+        <v>55.34278099999997</v>
       </c>
       <c r="F59" s="6">
-        <v>1.212435514772728</v>
+        <v>0.8167523324999997</v>
       </c>
       <c r="G59" s="6">
-        <v>0.1292758121988367</v>
+        <v>-0.1938153125731548</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" s="7">
         <v>2060</v>
       </c>
       <c r="E60" s="8">
-        <v>151.448242</v>
+        <v>151.4256829999999</v>
       </c>
       <c r="F60" s="9">
-        <v>1.223081566019417</v>
+        <v>0.8678640773253989</v>
       </c>
       <c r="G60" s="9">
-        <v>0.7046950367607767</v>
+        <v>0.37312783580677</v>
       </c>
     </row>
   </sheetData>
